--- a/Load/src/ontology/ICEMR/india/Indian_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/india/Indian_metadata.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6064" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6064" uniqueCount="469">
   <si>
     <t>Label</t>
   </si>
@@ -1419,6 +1419,12 @@
   </si>
   <si>
     <t>Reactive Case Detection CRF</t>
+  </si>
+  <si>
+    <t>EUPATH_0000329</t>
+  </si>
+  <si>
+    <t>EUPATH_0000331</t>
   </si>
 </sst>
 </file>
@@ -1632,18 +1638,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1694,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2008,7 +2014,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,4834 +2038,4834 @@
     <col min="19" max="19" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="16" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34" t="s">
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="34" t="s">
+      <c r="F2" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="14" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="33"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="23" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="28"/>
+      <c r="L4" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="24" t="s">
+      <c r="O4" s="28"/>
+      <c r="P4" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="24" t="s">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="22" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="26" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="33"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="29"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28" t="s">
+      <c r="N9" s="24"/>
+      <c r="O9" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28" t="s">
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29" t="s">
+      <c r="R9" s="24"/>
+      <c r="S9" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="24" t="s">
+      <c r="K10" s="28"/>
+      <c r="L10" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="24" t="s">
+      <c r="O10" s="28"/>
+      <c r="P10" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="24" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="33"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26" t="s">
+      <c r="N15" s="22"/>
+      <c r="O15" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26" t="s">
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R15" s="26"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R17" s="26"/>
+      <c r="R17" s="22"/>
       <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26" t="s">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
       <c r="S18" s="11"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="22"/>
+      <c r="O19" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
       <c r="S19" s="11"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26" t="s">
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26" t="s">
+      <c r="N20" s="22"/>
+      <c r="O20" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26" t="s">
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R20" s="26"/>
+      <c r="R20" s="22"/>
       <c r="S20" s="11"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
       <c r="S21" s="11"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28" t="s">
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28" t="s">
+      <c r="L22" s="24"/>
+      <c r="M22" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28" t="s">
+      <c r="N22" s="24"/>
+      <c r="O22" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28" t="s">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="29" t="s">
+      <c r="R22" s="24"/>
+      <c r="S22" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25" t="s">
+      <c r="L23" s="21"/>
+      <c r="M23" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25" t="s">
+      <c r="N23" s="21"/>
+      <c r="O23" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25" t="s">
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="R23" s="25"/>
+      <c r="R23" s="21"/>
       <c r="S23" s="11"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26" t="s">
+      <c r="N24" s="22"/>
+      <c r="O24" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26" t="s">
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R24" s="26"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="11"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="24"/>
+      <c r="M25" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28" t="s">
+      <c r="N25" s="24"/>
+      <c r="O25" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28" t="s">
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="29" t="s">
+      <c r="R25" s="24"/>
+      <c r="S25" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
       <c r="S26" s="11"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
       <c r="S27" s="11"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26" t="s">
+      <c r="L28" s="22"/>
+      <c r="M28" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26" t="s">
+      <c r="N28" s="22"/>
+      <c r="O28" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26" t="s">
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R28" s="26"/>
+      <c r="R28" s="22"/>
       <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26" t="s">
+      <c r="L29" s="22"/>
+      <c r="M29" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26" t="s">
+      <c r="N29" s="22"/>
+      <c r="O29" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26" t="s">
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R29" s="26"/>
+      <c r="R29" s="22"/>
       <c r="S29" s="11"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26" t="s">
+      <c r="L30" s="22"/>
+      <c r="M30" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26" t="s">
+      <c r="N30" s="22"/>
+      <c r="O30" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26" t="s">
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R30" s="26"/>
+      <c r="R30" s="22"/>
       <c r="S30" s="11"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="24" t="s">
+      <c r="M31" s="28"/>
+      <c r="N31" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O31" s="32"/>
-      <c r="P31" s="24" t="s">
+      <c r="O31" s="28"/>
+      <c r="P31" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="24" t="s">
+      <c r="Q31" s="28"/>
+      <c r="R31" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
       <c r="S32" s="11"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26" t="s">
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26" t="s">
+      <c r="L33" s="22"/>
+      <c r="M33" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26" t="s">
+      <c r="N33" s="22"/>
+      <c r="O33" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26" t="s">
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R33" s="26"/>
-      <c r="S33" s="33"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="29"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26" t="s">
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26" t="s">
+      <c r="L34" s="22"/>
+      <c r="M34" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26" t="s">
+      <c r="N34" s="22"/>
+      <c r="O34" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26" t="s">
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R34" s="26"/>
+      <c r="R34" s="22"/>
       <c r="S34" s="11"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26" t="s">
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26" t="s">
+      <c r="L35" s="22"/>
+      <c r="M35" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26" t="s">
+      <c r="N35" s="22"/>
+      <c r="O35" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26" t="s">
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R35" s="26"/>
+      <c r="R35" s="22"/>
       <c r="S35" s="11"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26" t="s">
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26" t="s">
+      <c r="L36" s="22"/>
+      <c r="M36" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26" t="s">
+      <c r="N36" s="22"/>
+      <c r="O36" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26" t="s">
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R36" s="26"/>
-      <c r="S36" s="33"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="29"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26" t="s">
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26" t="s">
+      <c r="L37" s="22"/>
+      <c r="M37" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26" t="s">
+      <c r="N37" s="22"/>
+      <c r="O37" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26" t="s">
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" s="33"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="29"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26" t="s">
+      <c r="N38" s="22"/>
+      <c r="O38" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
       <c r="S38" s="11"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26" t="s">
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26" t="s">
+      <c r="L39" s="22"/>
+      <c r="M39" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26" t="s">
+      <c r="N39" s="22"/>
+      <c r="O39" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26" t="s">
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R39" s="26"/>
+      <c r="R39" s="22"/>
       <c r="S39" s="11"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25" t="s">
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="33"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="29"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30" t="s">
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30" t="s">
+      <c r="L41" s="26"/>
+      <c r="M41" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30" t="s">
+      <c r="N41" s="26"/>
+      <c r="O41" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="29" t="s">
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25" t="s">
+      <c r="L42" s="21"/>
+      <c r="M42" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25" t="s">
+      <c r="N42" s="21"/>
+      <c r="O42" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25" t="s">
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="R42" s="25"/>
-      <c r="S42" s="33"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="29"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28" t="s">
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28" t="s">
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28" t="s">
+      <c r="N43" s="24"/>
+      <c r="O43" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28" t="s">
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R43" s="28"/>
-      <c r="S43" s="29" t="s">
+      <c r="R43" s="24"/>
+      <c r="S43" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28" t="s">
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28" t="s">
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28" t="s">
+      <c r="N44" s="24"/>
+      <c r="O44" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28" t="s">
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="29" t="s">
+      <c r="R44" s="24"/>
+      <c r="S44" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25" t="s">
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
       <c r="S45" s="11"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26" t="s">
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26" t="s">
+      <c r="L46" s="22"/>
+      <c r="M46" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26" t="s">
+      <c r="N46" s="22"/>
+      <c r="O46" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26" t="s">
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R46" s="26"/>
+      <c r="R46" s="22"/>
       <c r="S46" s="11"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26" t="s">
+      <c r="L47" s="22"/>
+      <c r="M47" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26" t="s">
+      <c r="N47" s="22"/>
+      <c r="O47" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26" t="s">
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R47" s="26"/>
+      <c r="R47" s="22"/>
       <c r="S47" s="11"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="G48" s="28" t="s">
+      <c r="G48" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28" t="s">
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="29" t="s">
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F49" s="28" t="s">
+      <c r="F49" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28" t="s">
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="29" t="s">
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25" t="s">
+      <c r="D50" s="21"/>
+      <c r="E50" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25" t="s">
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
       <c r="S50" s="11"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26" t="s">
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R51" s="26"/>
+      <c r="R51" s="22"/>
       <c r="S51" s="11"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26" t="s">
+      <c r="D52" s="22"/>
+      <c r="E52" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F52" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26" t="s">
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
       <c r="S52" s="11"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26" t="s">
+      <c r="D53" s="22"/>
+      <c r="E53" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26" t="s">
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26" t="s">
+      <c r="L53" s="22"/>
+      <c r="M53" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26" t="s">
+      <c r="N53" s="22"/>
+      <c r="O53" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26" t="s">
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R53" s="26"/>
+      <c r="R53" s="22"/>
       <c r="S53" s="11"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C54" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25" t="s">
+      <c r="D54" s="21"/>
+      <c r="E54" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="F54" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25" t="s">
+      <c r="I54" s="21"/>
+      <c r="J54" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
       <c r="S54" s="11"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25" t="s">
+      <c r="I55" s="21"/>
+      <c r="J55" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
       <c r="S55" s="11"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25" t="s">
+      <c r="D56" s="21"/>
+      <c r="E56" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="F56" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25" t="s">
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
       <c r="S56" s="11"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26" t="s">
+      <c r="D57" s="22"/>
+      <c r="E57" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26" t="s">
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26" t="s">
+      <c r="L57" s="22"/>
+      <c r="M57" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26" t="s">
+      <c r="N57" s="22"/>
+      <c r="O57" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26" t="s">
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R57" s="26"/>
+      <c r="R57" s="22"/>
       <c r="S57" s="11"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26" t="s">
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26" t="s">
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26" t="s">
+      <c r="L58" s="22"/>
+      <c r="M58" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26" t="s">
+      <c r="N58" s="22"/>
+      <c r="O58" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26" t="s">
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R58" s="26"/>
+      <c r="R58" s="22"/>
       <c r="S58" s="11"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="G59" s="30" t="s">
+      <c r="G59" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30" t="s">
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30" t="s">
+      <c r="L59" s="26"/>
+      <c r="M59" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30" t="s">
+      <c r="N59" s="26"/>
+      <c r="O59" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30" t="s">
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R59" s="30"/>
-      <c r="S59" s="29" t="s">
+      <c r="R59" s="26"/>
+      <c r="S59" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26" t="s">
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26" t="s">
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26" t="s">
+      <c r="L60" s="22"/>
+      <c r="M60" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26" t="s">
+      <c r="N60" s="22"/>
+      <c r="O60" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26" t="s">
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R60" s="26"/>
-      <c r="S60" s="33"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="29"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26" t="s">
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26" t="s">
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26" t="s">
+      <c r="L61" s="22"/>
+      <c r="M61" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26" t="s">
+      <c r="N61" s="22"/>
+      <c r="O61" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26" t="s">
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R61" s="26"/>
+      <c r="R61" s="22"/>
       <c r="S61" s="11"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="G62" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30" t="s">
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30" t="s">
+      <c r="L62" s="26"/>
+      <c r="M62" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30" t="s">
+      <c r="N62" s="26"/>
+      <c r="O62" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30" t="s">
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R62" s="30"/>
-      <c r="S62" s="29" t="s">
+      <c r="R62" s="26"/>
+      <c r="S62" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30" t="s">
+      <c r="D63" s="26"/>
+      <c r="E63" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G63" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30" t="s">
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30" t="s">
+      <c r="L63" s="26"/>
+      <c r="M63" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30" t="s">
+      <c r="N63" s="26"/>
+      <c r="O63" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30" t="s">
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R63" s="30"/>
-      <c r="S63" s="29" t="s">
+      <c r="R63" s="26"/>
+      <c r="S63" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F64" s="26" t="s">
+      <c r="F64" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26" t="s">
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26" t="s">
+      <c r="L64" s="22"/>
+      <c r="M64" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26" t="s">
+      <c r="N64" s="22"/>
+      <c r="O64" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26" t="s">
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R64" s="26"/>
+      <c r="R64" s="22"/>
       <c r="S64" s="11"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F65" s="26" t="s">
+      <c r="F65" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26" t="s">
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26" t="s">
+      <c r="L65" s="22"/>
+      <c r="M65" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26" t="s">
+      <c r="N65" s="22"/>
+      <c r="O65" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26" t="s">
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R65" s="26"/>
+      <c r="R65" s="22"/>
       <c r="S65" s="11"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28" t="s">
+      <c r="D66" s="24"/>
+      <c r="E66" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G66" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28" t="s">
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="29" t="s">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26" t="s">
+      <c r="D67" s="22"/>
+      <c r="E67" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G67" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26" t="s">
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26" t="s">
+      <c r="L67" s="22"/>
+      <c r="M67" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26" t="s">
+      <c r="N67" s="22"/>
+      <c r="O67" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26" t="s">
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R67" s="26"/>
+      <c r="R67" s="22"/>
       <c r="S67" s="11"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="23" t="s">
+      <c r="H68" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="J68" s="23" t="s">
+      <c r="J68" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K68" s="24" t="s">
+      <c r="K68" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="L68" s="23"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="24" t="s">
+      <c r="L68" s="19"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O68" s="32"/>
-      <c r="P68" s="24" t="s">
+      <c r="O68" s="28"/>
+      <c r="P68" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="24" t="s">
+      <c r="Q68" s="28"/>
+      <c r="R68" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S68" s="11"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26" t="s">
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26" t="s">
+      <c r="L69" s="22"/>
+      <c r="M69" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26" t="s">
+      <c r="N69" s="22"/>
+      <c r="O69" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26" t="s">
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R69" s="26"/>
-      <c r="S69" s="33"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="29"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="22"/>
+      <c r="E70" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F70" s="26" t="s">
+      <c r="F70" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26" t="s">
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26" t="s">
+      <c r="L70" s="22"/>
+      <c r="M70" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26" t="s">
+      <c r="N70" s="22"/>
+      <c r="O70" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26" t="s">
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R70" s="26"/>
-      <c r="S70" s="33"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="29"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26" t="s">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26" t="s">
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26" t="s">
+      <c r="L71" s="22"/>
+      <c r="M71" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26" t="s">
+      <c r="N71" s="22"/>
+      <c r="O71" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26" t="s">
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R71" s="26"/>
+      <c r="R71" s="22"/>
       <c r="S71" s="11"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="23" t="s">
+      <c r="I72" s="19"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="L72" s="26"/>
-      <c r="M72" s="23" t="s">
+      <c r="L72" s="22"/>
+      <c r="M72" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="N72" s="26"/>
-      <c r="O72" s="23" t="s">
+      <c r="N72" s="22"/>
+      <c r="O72" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="24" t="s">
+      <c r="P72" s="19"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S72" s="11"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
+      <c r="A73" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="G73" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26" t="s">
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26" t="s">
+      <c r="L73" s="22"/>
+      <c r="M73" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26" t="s">
+      <c r="N73" s="22"/>
+      <c r="O73" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26" t="s">
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R73" s="32"/>
+      <c r="R73" s="28"/>
       <c r="S73" s="11"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="A74" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H74" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26" t="s">
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26" t="s">
+      <c r="L74" s="22"/>
+      <c r="M74" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26" t="s">
+      <c r="N74" s="22"/>
+      <c r="O74" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26" t="s">
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R74" s="26"/>
+      <c r="R74" s="22"/>
       <c r="S74" s="11"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25" t="s">
+      <c r="D75" s="21"/>
+      <c r="E75" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H75" s="25" t="s">
+      <c r="H75" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25" t="s">
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25" t="s">
+      <c r="L75" s="21"/>
+      <c r="M75" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="N75" s="25"/>
-      <c r="O75" s="26" t="s">
+      <c r="N75" s="21"/>
+      <c r="O75" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26" t="s">
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R75" s="26"/>
+      <c r="R75" s="22"/>
       <c r="S75" s="11"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="30" t="s">
+      <c r="G76" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30" t="s">
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30" t="s">
+      <c r="L76" s="26"/>
+      <c r="M76" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30" t="s">
+      <c r="N76" s="26"/>
+      <c r="O76" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30" t="s">
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R76" s="30"/>
-      <c r="S76" s="29" t="s">
+      <c r="R76" s="26"/>
+      <c r="S76" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="F77" s="26" t="s">
+      <c r="F77" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26" t="s">
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26" t="s">
+      <c r="L77" s="22"/>
+      <c r="M77" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26" t="s">
+      <c r="N77" s="22"/>
+      <c r="O77" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26" t="s">
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R77" s="26"/>
+      <c r="R77" s="22"/>
       <c r="S77" s="11"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30" t="s">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G78" s="30" t="s">
+      <c r="G78" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30" t="s">
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30" t="s">
+      <c r="L78" s="26"/>
+      <c r="M78" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30" t="s">
+      <c r="N78" s="26"/>
+      <c r="O78" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30" t="s">
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R78" s="30"/>
-      <c r="S78" s="29" t="s">
+      <c r="R78" s="26"/>
+      <c r="S78" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G79" s="30" t="s">
+      <c r="G79" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30" t="s">
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30" t="s">
+      <c r="L79" s="26"/>
+      <c r="M79" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30" t="s">
+      <c r="N79" s="26"/>
+      <c r="O79" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30" t="s">
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R79" s="30"/>
-      <c r="S79" s="29" t="s">
+      <c r="R79" s="26"/>
+      <c r="S79" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F80" s="26" t="s">
+      <c r="F80" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26" t="s">
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26" t="s">
+      <c r="L80" s="22"/>
+      <c r="M80" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26" t="s">
+      <c r="N80" s="22"/>
+      <c r="O80" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26" t="s">
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R80" s="26"/>
+      <c r="R80" s="22"/>
       <c r="S80" s="11"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30" t="s">
+      <c r="D81" s="26"/>
+      <c r="E81" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="G81" s="30" t="s">
+      <c r="G81" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30" t="s">
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30" t="s">
+      <c r="L81" s="26"/>
+      <c r="M81" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30" t="s">
+      <c r="N81" s="26"/>
+      <c r="O81" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="30" t="s">
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="R81" s="30"/>
+      <c r="R81" s="26"/>
       <c r="S81" s="11"/>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="25" t="s">
+      <c r="E82" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="25" t="s">
+      <c r="G82" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25" t="s">
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25" t="s">
+      <c r="L82" s="21"/>
+      <c r="M82" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25" t="s">
+      <c r="N82" s="21"/>
+      <c r="O82" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25" t="s">
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="R82" s="25"/>
+      <c r="R82" s="21"/>
       <c r="S82" s="11"/>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="28" t="s">
+      <c r="B83" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28" t="s">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28" t="s">
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="28"/>
-      <c r="S83" s="29" t="s">
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="B84" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28" t="s">
+      <c r="D84" s="24"/>
+      <c r="E84" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F84" s="28" t="s">
+      <c r="F84" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="G84" s="28" t="s">
+      <c r="G84" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28" t="s">
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="29" t="s">
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26" t="s">
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L85" s="26"/>
-      <c r="M85" s="26" t="s">
+      <c r="L85" s="22"/>
+      <c r="M85" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26" t="s">
+      <c r="N85" s="22"/>
+      <c r="O85" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26" t="s">
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R85" s="26"/>
+      <c r="R85" s="22"/>
       <c r="S85" s="11"/>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25" t="s">
+      <c r="D86" s="21"/>
+      <c r="E86" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F86" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G86" s="25" t="s">
+      <c r="G86" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25" t="s">
+      <c r="I86" s="21"/>
+      <c r="J86" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
       <c r="S86" s="11"/>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="F87" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26" t="s">
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L87" s="26"/>
-      <c r="M87" s="26" t="s">
+      <c r="L87" s="22"/>
+      <c r="M87" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26" t="s">
+      <c r="N87" s="22"/>
+      <c r="O87" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26" t="s">
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R87" s="26"/>
+      <c r="R87" s="22"/>
       <c r="S87" s="11"/>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E88" s="25" t="s">
+      <c r="E88" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="F88" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G88" s="25" t="s">
+      <c r="G88" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="23" t="s">
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="24" t="s">
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O88" s="32"/>
-      <c r="P88" s="24" t="s">
+      <c r="O88" s="28"/>
+      <c r="P88" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="24" t="s">
+      <c r="Q88" s="28"/>
+      <c r="R88" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S88" s="11"/>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B89" s="23" t="s">
+      <c r="B89" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C89" s="23" t="s">
+      <c r="C89" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E89" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="G89" s="25" t="s">
+      <c r="G89" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="23" t="s">
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="L89" s="24" t="s">
+      <c r="L89" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="25"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
       <c r="S89" s="11"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25" t="s">
+      <c r="D90" s="21"/>
+      <c r="E90" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="H90" s="23" t="s">
+      <c r="H90" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I90" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="J90" s="23" t="s">
+      <c r="J90" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24" t="s">
+      <c r="K90" s="19"/>
+      <c r="L90" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="M90" s="32"/>
-      <c r="N90" s="24" t="s">
+      <c r="M90" s="28"/>
+      <c r="N90" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O90" s="32"/>
-      <c r="P90" s="24" t="s">
+      <c r="O90" s="28"/>
+      <c r="P90" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="24" t="s">
+      <c r="Q90" s="28"/>
+      <c r="R90" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S90" s="11"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25" t="s">
+      <c r="D91" s="21"/>
+      <c r="E91" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="G91" s="25" t="s">
+      <c r="G91" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25" t="s">
+      <c r="I91" s="21"/>
+      <c r="J91" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
       <c r="S91" s="11"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F92" s="26" t="s">
+      <c r="F92" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26" t="s">
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L92" s="26"/>
-      <c r="M92" s="26" t="s">
+      <c r="L92" s="22"/>
+      <c r="M92" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26" t="s">
+      <c r="N92" s="22"/>
+      <c r="O92" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26" t="s">
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R92" s="26"/>
+      <c r="R92" s="22"/>
       <c r="S92" s="11"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28" t="s">
+      <c r="D93" s="24"/>
+      <c r="E93" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G93" s="28" t="s">
+      <c r="G93" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28" t="s">
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="L93" s="28"/>
-      <c r="M93" s="30" t="s">
+      <c r="L93" s="24"/>
+      <c r="M93" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N93" s="28"/>
-      <c r="O93" s="28" t="s">
+      <c r="N93" s="24"/>
+      <c r="O93" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P93" s="28"/>
-      <c r="Q93" s="28" t="s">
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R93" s="28"/>
-      <c r="S93" s="29" t="s">
+      <c r="R93" s="24"/>
+      <c r="S93" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B94" s="23" t="s">
+      <c r="B94" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="25" t="s">
+      <c r="E94" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F94" s="23" t="s">
+      <c r="F94" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="G94" s="25" t="s">
+      <c r="G94" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="23" t="s">
+      <c r="H94" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I94" s="23" t="s">
+      <c r="I94" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="J94" s="23" t="s">
+      <c r="J94" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24" t="s">
+      <c r="K94" s="19"/>
+      <c r="L94" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="M94" s="24"/>
-      <c r="N94" s="24" t="s">
+      <c r="M94" s="20"/>
+      <c r="N94" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O94" s="32"/>
-      <c r="P94" s="24" t="s">
+      <c r="O94" s="28"/>
+      <c r="P94" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="24" t="s">
+      <c r="Q94" s="28"/>
+      <c r="R94" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S94" s="11"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26" t="s">
+      <c r="D95" s="22"/>
+      <c r="E95" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="F95" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G95" s="26" t="s">
+      <c r="G95" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26" t="s">
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L95" s="26"/>
-      <c r="M95" s="26" t="s">
+      <c r="L95" s="22"/>
+      <c r="M95" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26" t="s">
+      <c r="N95" s="22"/>
+      <c r="O95" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26" t="s">
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R95" s="26"/>
+      <c r="R95" s="22"/>
       <c r="S95" s="11"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25" t="s">
+      <c r="D96" s="21"/>
+      <c r="E96" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G96" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H96" s="23" t="s">
+      <c r="H96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I96" s="24" t="s">
+      <c r="I96" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J96" s="23" t="s">
+      <c r="J96" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24" t="s">
+      <c r="K96" s="19"/>
+      <c r="L96" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24" t="s">
+      <c r="M96" s="20"/>
+      <c r="N96" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O96" s="32"/>
-      <c r="P96" s="24" t="s">
+      <c r="O96" s="28"/>
+      <c r="P96" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="24" t="s">
+      <c r="Q96" s="28"/>
+      <c r="R96" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S96" s="11"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E97" s="25" t="s">
+      <c r="E97" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G97" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="23" t="s">
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
-      <c r="N97" s="24" t="s">
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O97" s="32"/>
-      <c r="P97" s="24" t="s">
+      <c r="O97" s="28"/>
+      <c r="P97" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q97" s="32"/>
-      <c r="R97" s="24" t="s">
+      <c r="Q97" s="28"/>
+      <c r="R97" s="20" t="s">
         <v>246</v>
       </c>
       <c r="S97" s="11"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25" t="s">
+      <c r="D98" s="21"/>
+      <c r="E98" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G98" s="25" t="s">
+      <c r="G98" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25" t="s">
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="25" t="s">
+      <c r="K98" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L98" s="25"/>
-      <c r="M98" s="26" t="s">
+      <c r="L98" s="21"/>
+      <c r="M98" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N98" s="25"/>
-      <c r="O98" s="26" t="s">
+      <c r="N98" s="21"/>
+      <c r="O98" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26" t="s">
+      <c r="P98" s="22"/>
+      <c r="Q98" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R98" s="26"/>
+      <c r="R98" s="22"/>
       <c r="S98" s="11"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="26" t="s">
+      <c r="A99" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26" t="s">
+      <c r="D99" s="22"/>
+      <c r="E99" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26" t="s">
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L99" s="26"/>
-      <c r="M99" s="26" t="s">
+      <c r="L99" s="22"/>
+      <c r="M99" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26" t="s">
+      <c r="N99" s="22"/>
+      <c r="O99" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26" t="s">
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R99" s="26"/>
+      <c r="R99" s="22"/>
       <c r="S99" s="11"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="26" t="s">
+      <c r="D100" s="23"/>
+      <c r="E100" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="F100" s="26" t="s">
+      <c r="F100" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H100" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26" t="s">
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26" t="s">
+      <c r="L100" s="22"/>
+      <c r="M100" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26" t="s">
+      <c r="N100" s="22"/>
+      <c r="O100" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26" t="s">
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R100" s="26"/>
+      <c r="R100" s="22"/>
       <c r="S100" s="11"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26" t="s">
+      <c r="D101" s="22"/>
+      <c r="E101" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F101" s="26" t="s">
+      <c r="F101" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G101" s="26" t="s">
+      <c r="G101" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="26"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26" t="s">
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L101" s="26"/>
-      <c r="M101" s="26" t="s">
+      <c r="L101" s="22"/>
+      <c r="M101" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26" t="s">
+      <c r="N101" s="22"/>
+      <c r="O101" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26" t="s">
+      <c r="P101" s="22"/>
+      <c r="Q101" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R101" s="26"/>
+      <c r="R101" s="22"/>
       <c r="S101" s="11"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25" t="s">
+      <c r="D102" s="21"/>
+      <c r="E102" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="F102" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G102" s="25" t="s">
+      <c r="G102" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25" t="s">
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K102" s="25" t="s">
+      <c r="K102" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L102" s="25"/>
-      <c r="M102" s="26" t="s">
+      <c r="L102" s="21"/>
+      <c r="M102" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N102" s="25"/>
-      <c r="O102" s="25" t="s">
+      <c r="N102" s="21"/>
+      <c r="O102" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25" t="s">
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="R102" s="25"/>
-      <c r="S102" s="33"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="29"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F103" s="26" t="s">
+      <c r="F103" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="G103" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26" t="s">
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26" t="s">
+      <c r="L103" s="22"/>
+      <c r="M103" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26" t="s">
+      <c r="N103" s="22"/>
+      <c r="O103" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26" t="s">
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R103" s="26"/>
+      <c r="R103" s="22"/>
       <c r="S103" s="11"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
+      <c r="A104" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26" t="s">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F104" s="26" t="s">
+      <c r="F104" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G104" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26" t="s">
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L104" s="26"/>
-      <c r="M104" s="26" t="s">
+      <c r="L104" s="22"/>
+      <c r="M104" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26" t="s">
+      <c r="N104" s="22"/>
+      <c r="O104" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26" t="s">
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R104" s="26"/>
+      <c r="R104" s="22"/>
       <c r="S104" s="11"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26" t="s">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F105" s="26" t="s">
+      <c r="F105" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="G105" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H105" s="26"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26" t="s">
+      <c r="H105" s="22"/>
+      <c r="I105" s="22"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26" t="s">
+      <c r="L105" s="22"/>
+      <c r="M105" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26" t="s">
+      <c r="N105" s="22"/>
+      <c r="O105" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26" t="s">
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R105" s="26"/>
+      <c r="R105" s="22"/>
       <c r="S105" s="11"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26" t="s">
+      <c r="D106" s="22"/>
+      <c r="E106" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F106" s="26" t="s">
+      <c r="F106" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26" t="s">
+      <c r="H106" s="22"/>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L106" s="26"/>
-      <c r="M106" s="26" t="s">
+      <c r="L106" s="22"/>
+      <c r="M106" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26" t="s">
+      <c r="N106" s="22"/>
+      <c r="O106" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26" t="s">
+      <c r="P106" s="22"/>
+      <c r="Q106" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R106" s="26"/>
+      <c r="R106" s="22"/>
       <c r="S106" s="11"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="26" t="s">
+      <c r="B107" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26" t="s">
+      <c r="D107" s="22"/>
+      <c r="E107" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F107" s="26" t="s">
+      <c r="F107" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G107" s="26" t="s">
+      <c r="G107" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26" t="s">
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L107" s="26"/>
-      <c r="M107" s="26" t="s">
+      <c r="L107" s="22"/>
+      <c r="M107" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26" t="s">
+      <c r="N107" s="22"/>
+      <c r="O107" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26" t="s">
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R107" s="26"/>
+      <c r="R107" s="22"/>
       <c r="S107" s="11"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="26" t="s">
+      <c r="A108" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26" t="s">
+      <c r="D108" s="22"/>
+      <c r="E108" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F108" s="26" t="s">
+      <c r="F108" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26" t="s">
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L108" s="26"/>
-      <c r="M108" s="26" t="s">
+      <c r="L108" s="22"/>
+      <c r="M108" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26" t="s">
+      <c r="N108" s="22"/>
+      <c r="O108" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26" t="s">
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R108" s="26"/>
+      <c r="R108" s="22"/>
       <c r="S108" s="11"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26" t="s">
+      <c r="D109" s="22"/>
+      <c r="E109" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F109" s="26" t="s">
+      <c r="F109" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G109" s="26" t="s">
+      <c r="G109" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26" t="s">
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L109" s="26"/>
-      <c r="M109" s="26" t="s">
+      <c r="L109" s="22"/>
+      <c r="M109" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26" t="s">
+      <c r="N109" s="22"/>
+      <c r="O109" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26" t="s">
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R109" s="26"/>
-      <c r="S109" s="33"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="29"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26" t="s">
+      <c r="D110" s="22"/>
+      <c r="E110" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="F110" s="26" t="s">
+      <c r="F110" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26" t="s">
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L110" s="26"/>
-      <c r="M110" s="26" t="s">
+      <c r="L110" s="22"/>
+      <c r="M110" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26" t="s">
+      <c r="N110" s="22"/>
+      <c r="O110" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26" t="s">
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R110" s="26"/>
+      <c r="R110" s="22"/>
       <c r="S110" s="11"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25" t="s">
+      <c r="D111" s="21"/>
+      <c r="E111" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="F111" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="G111" s="25" t="s">
+      <c r="G111" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="H111" s="25" t="s">
+      <c r="H111" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25" t="s">
+      <c r="I111" s="21"/>
+      <c r="J111" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="25"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="25"/>
-      <c r="P111" s="25"/>
-      <c r="Q111" s="25"/>
-      <c r="R111" s="25"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
       <c r="S111" s="11"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25" t="s">
+      <c r="D112" s="21"/>
+      <c r="E112" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F112" s="25" t="s">
+      <c r="F112" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="G112" s="25" t="s">
+      <c r="G112" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="H112" s="25" t="s">
+      <c r="H112" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25" t="s">
+      <c r="I112" s="21"/>
+      <c r="J112" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="25"/>
-      <c r="N112" s="25"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="25"/>
-      <c r="S112" s="33"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="29"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25" t="s">
+      <c r="D113" s="21"/>
+      <c r="E113" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F113" s="25" t="s">
+      <c r="F113" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="H113" s="25" t="s">
+      <c r="H113" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25" t="s">
+      <c r="I113" s="21"/>
+      <c r="J113" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="25"/>
-      <c r="N113" s="25"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="25"/>
-      <c r="S113" s="33"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="29"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25" t="s">
+      <c r="D114" s="21"/>
+      <c r="E114" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="F114" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="G114" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25" t="s">
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K114" s="25" t="s">
+      <c r="K114" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="L114" s="25"/>
-      <c r="M114" s="26" t="s">
+      <c r="L114" s="21"/>
+      <c r="M114" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N114" s="25"/>
-      <c r="O114" s="26" t="s">
+      <c r="N114" s="21"/>
+      <c r="O114" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26" t="s">
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R114" s="26"/>
+      <c r="R114" s="22"/>
       <c r="S114" s="11"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F115" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G115" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28" t="s">
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="L115" s="28"/>
-      <c r="M115" s="30" t="s">
+      <c r="L115" s="24"/>
+      <c r="M115" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="N115" s="28"/>
-      <c r="O115" s="28" t="s">
+      <c r="N115" s="24"/>
+      <c r="O115" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="P115" s="28"/>
-      <c r="Q115" s="28" t="s">
+      <c r="P115" s="24"/>
+      <c r="Q115" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="R115" s="28"/>
-      <c r="S115" s="29" t="s">
+      <c r="R115" s="24"/>
+      <c r="S115" s="25" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25" t="s">
+      <c r="D116" s="21"/>
+      <c r="E116" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="F116" s="25" t="s">
+      <c r="F116" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G116" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="H116" s="25" t="s">
+      <c r="H116" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25" t="s">
+      <c r="I116" s="21"/>
+      <c r="J116" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="25"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="25"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
       <c r="S116" s="11"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26" t="s">
+      <c r="D117" s="22"/>
+      <c r="E117" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="F117" s="26" t="s">
+      <c r="F117" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G117" s="26" t="s">
+      <c r="G117" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26" t="s">
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="L117" s="26"/>
-      <c r="M117" s="26" t="s">
+      <c r="L117" s="22"/>
+      <c r="M117" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26" t="s">
+      <c r="N117" s="22"/>
+      <c r="O117" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26" t="s">
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="R117" s="26"/>
+      <c r="R117" s="22"/>
       <c r="S117" s="11"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25" t="s">
+      <c r="D118" s="21"/>
+      <c r="E118" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F118" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="G118" s="25" t="s">
+      <c r="G118" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25" t="s">
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="25"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
       <c r="S118" s="11"/>
     </row>
   </sheetData>
@@ -18016,24 +18022,24 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="M2" t="s">
         <v>357</v>
       </c>
@@ -21274,18 +21280,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">

--- a/Load/src/ontology/ICEMR/india/Indian_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/india/Indian_metadata.xlsx
@@ -1382,24 +1382,6 @@
     <t>http://purl.obolibrary.org/obo/eupath/indian.owl#undefined</t>
   </si>
   <si>
-    <t>indian.owl#label_alternative</t>
-  </si>
-  <si>
-    <t>indian.owl#field_type</t>
-  </si>
-  <si>
-    <t>indian.owl#values</t>
-  </si>
-  <si>
-    <t>indian.owl#values_other</t>
-  </si>
-  <si>
-    <t>indian.owl#study_type</t>
-  </si>
-  <si>
-    <t>indian.owl#study_type_alternative</t>
-  </si>
-  <si>
     <t>indian.owl#submitted_PlasmoDB</t>
   </si>
   <si>
@@ -1425,6 +1407,24 @@
   </si>
   <si>
     <t>EUPATH_0000331</t>
+  </si>
+  <si>
+    <t>eupath/icemr/indian.owl#label_alternative</t>
+  </si>
+  <si>
+    <t>eupath/icemr/indian.owl#field_type</t>
+  </si>
+  <si>
+    <t>eupath/icemr/indian.owl#values</t>
+  </si>
+  <si>
+    <t>eupath/icemr/indian.owl#values_other</t>
+  </si>
+  <si>
+    <t>eupath/icemr/indian.owl#study_type</t>
+  </si>
+  <si>
+    <t>eupath/icemr/indian.owl#study_type_alternative</t>
   </si>
 </sst>
 </file>
@@ -2011,10 +2011,10 @@
   <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>2</v>
@@ -2055,7 +2055,7 @@
         <v>434</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>393</v>
@@ -2070,28 +2070,28 @@
         <v>6</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>444</v>
@@ -2102,52 +2102,52 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>454</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">

--- a/Load/src/ontology/ICEMR/india/Indian_metadata.xlsx
+++ b/Load/src/ontology/ICEMR/india/Indian_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26423"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="320" windowWidth="31420" windowHeight="16240" tabRatio="947"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="33600" windowHeight="21000" tabRatio="947" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Indian Terms" sheetId="13" r:id="rId1"/>
@@ -6351,7 +6351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6415,6 +6415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6504,7 +6510,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1187">
+  <cellStyleXfs count="1195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7692,8 +7698,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7905,18 +7919,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -7944,8 +7946,21 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1187">
+  <cellStyles count="1195">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8596,6 +8611,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -9132,6 +9151,10 @@
     <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9433,8 +9456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A244" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12972,7 +12995,7 @@
       <c r="E154" t="s">
         <v>1478</v>
       </c>
-      <c r="F154" s="108">
+      <c r="F154" s="104">
         <v>0</v>
       </c>
       <c r="G154" t="s">
@@ -13075,7 +13098,7 @@
       <c r="A159" t="s">
         <v>1704</v>
       </c>
-      <c r="B159" s="109" t="s">
+      <c r="B159" s="105" t="s">
         <v>1010</v>
       </c>
       <c r="C159" t="s">
@@ -13213,7 +13236,7 @@
       <c r="A165" t="s">
         <v>1707</v>
       </c>
-      <c r="B165" s="110" t="s">
+      <c r="B165" s="106" t="s">
         <v>1013</v>
       </c>
       <c r="C165" t="s">
@@ -13236,7 +13259,7 @@
       <c r="A166" t="s">
         <v>1708</v>
       </c>
-      <c r="B166" s="111" t="s">
+      <c r="B166" s="107" t="s">
         <v>995</v>
       </c>
       <c r="C166" t="s">
@@ -13259,7 +13282,7 @@
       <c r="A167" t="s">
         <v>1708</v>
       </c>
-      <c r="B167" s="112" t="s">
+      <c r="B167" s="108" t="s">
         <v>995</v>
       </c>
       <c r="C167" t="s">
@@ -14179,7 +14202,7 @@
       <c r="A207" t="s">
         <v>1746</v>
       </c>
-      <c r="B207" s="105" t="s">
+      <c r="B207" s="101" t="s">
         <v>1410</v>
       </c>
       <c r="C207" t="s">
@@ -14708,7 +14731,7 @@
       <c r="A230" t="s">
         <v>1767</v>
       </c>
-      <c r="B230" s="106" t="s">
+      <c r="B230" s="102" t="s">
         <v>1417</v>
       </c>
       <c r="C230" t="s">
@@ -14823,7 +14846,7 @@
       <c r="A235" t="s">
         <v>1772</v>
       </c>
-      <c r="B235" s="107" t="s">
+      <c r="B235" s="103" t="s">
         <v>1475</v>
       </c>
       <c r="C235" t="s">
@@ -14996,7 +15019,7 @@
       <c r="E242" t="s">
         <v>1898</v>
       </c>
-      <c r="F242" s="116" t="s">
+      <c r="F242" s="112" t="s">
         <v>1892</v>
       </c>
       <c r="G242" t="s">
@@ -15007,7 +15030,7 @@
       <c r="A243" t="s">
         <v>1779</v>
       </c>
-      <c r="B243" s="109" t="s">
+      <c r="B243" s="105" t="s">
         <v>1423</v>
       </c>
       <c r="C243" t="s">
@@ -15019,7 +15042,7 @@
       <c r="E243" t="s">
         <v>1904</v>
       </c>
-      <c r="F243" s="117" t="s">
+      <c r="F243" s="113" t="s">
         <v>1910</v>
       </c>
       <c r="G243" t="s">
@@ -15042,7 +15065,7 @@
       <c r="E244" t="s">
         <v>1899</v>
       </c>
-      <c r="F244" s="116" t="s">
+      <c r="F244" s="112" t="s">
         <v>1893</v>
       </c>
       <c r="G244" t="s">
@@ -15053,7 +15076,7 @@
       <c r="A245" t="s">
         <v>1780</v>
       </c>
-      <c r="B245" s="109" t="s">
+      <c r="B245" s="105" t="s">
         <v>1424</v>
       </c>
       <c r="C245" t="s">
@@ -15065,7 +15088,7 @@
       <c r="E245" t="s">
         <v>1905</v>
       </c>
-      <c r="F245" s="117" t="s">
+      <c r="F245" s="113" t="s">
         <v>1911</v>
       </c>
       <c r="G245" t="s">
@@ -15088,7 +15111,7 @@
       <c r="E246" t="s">
         <v>1900</v>
       </c>
-      <c r="F246" s="116" t="s">
+      <c r="F246" s="112" t="s">
         <v>1894</v>
       </c>
       <c r="G246" t="s">
@@ -15099,7 +15122,7 @@
       <c r="A247" t="s">
         <v>1781</v>
       </c>
-      <c r="B247" s="109" t="s">
+      <c r="B247" s="105" t="s">
         <v>1425</v>
       </c>
       <c r="C247" t="s">
@@ -15111,7 +15134,7 @@
       <c r="E247" t="s">
         <v>1906</v>
       </c>
-      <c r="F247" s="117" t="s">
+      <c r="F247" s="113" t="s">
         <v>1912</v>
       </c>
       <c r="G247" t="s">
@@ -15134,7 +15157,7 @@
       <c r="E248" t="s">
         <v>1901</v>
       </c>
-      <c r="F248" s="116" t="s">
+      <c r="F248" s="112" t="s">
         <v>1895</v>
       </c>
       <c r="G248" t="s">
@@ -15145,7 +15168,7 @@
       <c r="A249" t="s">
         <v>1782</v>
       </c>
-      <c r="B249" s="109" t="s">
+      <c r="B249" s="105" t="s">
         <v>1426</v>
       </c>
       <c r="C249" t="s">
@@ -15157,7 +15180,7 @@
       <c r="E249" t="s">
         <v>1907</v>
       </c>
-      <c r="F249" s="117" t="s">
+      <c r="F249" s="113" t="s">
         <v>1913</v>
       </c>
       <c r="G249" t="s">
@@ -15180,7 +15203,7 @@
       <c r="E250" t="s">
         <v>1902</v>
       </c>
-      <c r="F250" s="116" t="s">
+      <c r="F250" s="112" t="s">
         <v>1896</v>
       </c>
       <c r="G250" t="s">
@@ -15191,7 +15214,7 @@
       <c r="A251" t="s">
         <v>1783</v>
       </c>
-      <c r="B251" s="109" t="s">
+      <c r="B251" s="105" t="s">
         <v>1010</v>
       </c>
       <c r="C251" t="s">
@@ -15203,7 +15226,7 @@
       <c r="E251" t="s">
         <v>1908</v>
       </c>
-      <c r="F251" s="117" t="s">
+      <c r="F251" s="113" t="s">
         <v>1909</v>
       </c>
       <c r="G251" t="s">
@@ -15226,7 +15249,7 @@
       <c r="E252" t="s">
         <v>1903</v>
       </c>
-      <c r="F252" s="116" t="s">
+      <c r="F252" s="112" t="s">
         <v>1897</v>
       </c>
       <c r="G252" t="s">
@@ -15249,7 +15272,7 @@
       <c r="E253" t="s">
         <v>1560</v>
       </c>
-      <c r="F253" s="117" t="s">
+      <c r="F253" s="113" t="s">
         <v>1914</v>
       </c>
       <c r="G253" t="s">
@@ -15260,7 +15283,7 @@
       <c r="A254" t="s">
         <v>1785</v>
       </c>
-      <c r="B254" s="114" t="s">
+      <c r="B254" s="110" t="s">
         <v>1427</v>
       </c>
       <c r="C254" t="s">
@@ -15272,7 +15295,7 @@
       <c r="E254" t="s">
         <v>1561</v>
       </c>
-      <c r="F254" s="115" t="s">
+      <c r="F254" s="111" t="s">
         <v>1915</v>
       </c>
       <c r="G254" t="s">
@@ -15513,7 +15536,7 @@
       <c r="A265" t="s">
         <v>1795</v>
       </c>
-      <c r="B265" s="113" t="s">
+      <c r="B265" s="109" t="s">
         <v>1436</v>
       </c>
       <c r="C265" t="s">
@@ -15525,7 +15548,7 @@
       <c r="E265" t="s">
         <v>2016</v>
       </c>
-      <c r="F265" s="115" t="s">
+      <c r="F265" s="111" t="s">
         <v>2019</v>
       </c>
       <c r="G265" t="s">
@@ -15559,7 +15582,7 @@
       <c r="A267" t="s">
         <v>1796</v>
       </c>
-      <c r="B267" s="113" t="s">
+      <c r="B267" s="109" t="s">
         <v>1437</v>
       </c>
       <c r="C267" t="s">
@@ -15571,7 +15594,7 @@
       <c r="E267" t="s">
         <v>2018</v>
       </c>
-      <c r="F267" s="115" t="s">
+      <c r="F267" s="111" t="s">
         <v>2020</v>
       </c>
       <c r="G267" t="s">
@@ -15640,7 +15663,7 @@
       <c r="E270" t="s">
         <v>1573</v>
       </c>
-      <c r="F270" s="115" t="s">
+      <c r="F270" s="111" t="s">
         <v>2014</v>
       </c>
       <c r="G270" t="s">
@@ -15686,7 +15709,7 @@
       <c r="E272" t="s">
         <v>1575</v>
       </c>
-      <c r="F272" s="115" t="s">
+      <c r="F272" s="111" t="s">
         <v>2021</v>
       </c>
       <c r="G272" t="s">
@@ -16333,7 +16356,7 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
@@ -16365,24 +16388,24 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="116" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="114" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
       <c r="M2" t="s">
         <v>357</v>
       </c>
@@ -19628,18 +19651,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="117" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
@@ -21546,8 +21569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22110,10 +22133,10 @@
   <dimension ref="A1:CP158"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30:I158"/>
+      <selection pane="bottomRight" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -32774,11 +32797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:H151"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -32934,7 +32957,7 @@
       <c r="F6" t="s">
         <v>1478</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="104">
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -33047,12 +33070,12 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B11" s="118" t="s">
         <v>1595</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="105" t="s">
         <v>1010</v>
       </c>
       <c r="D11" t="s">
@@ -33203,12 +33226,12 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B17" s="118" t="s">
         <v>1598</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="106" t="s">
         <v>1013</v>
       </c>
       <c r="D17" t="s">
@@ -33234,7 +33257,7 @@
       <c r="B18" t="s">
         <v>1599</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="107" t="s">
         <v>995</v>
       </c>
       <c r="D18" t="s">
@@ -33255,12 +33278,12 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B19" s="118" t="s">
         <v>1599</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="108" t="s">
         <v>995</v>
       </c>
       <c r="D19" t="s">
@@ -34335,7 +34358,7 @@
       <c r="B59" t="s">
         <v>1637</v>
       </c>
-      <c r="C59" s="105" t="s">
+      <c r="C59" s="101" t="s">
         <v>1410</v>
       </c>
       <c r="D59" t="s">
@@ -34941,7 +34964,7 @@
       <c r="B82" t="s">
         <v>1658</v>
       </c>
-      <c r="C82" s="106" t="s">
+      <c r="C82" s="102" t="s">
         <v>1417</v>
       </c>
       <c r="D82" t="s">
@@ -35083,7 +35106,7 @@
       <c r="B87" t="s">
         <v>1663</v>
       </c>
-      <c r="C87" s="107" t="s">
+      <c r="C87" s="103" t="s">
         <v>1475</v>
       </c>
       <c r="D87" t="s">
@@ -35292,7 +35315,7 @@
       <c r="F94" t="s">
         <v>1898</v>
       </c>
-      <c r="G94" s="116" t="s">
+      <c r="G94" s="112" t="s">
         <v>1892</v>
       </c>
       <c r="H94" t="s">
@@ -35302,12 +35325,12 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B95" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B95" s="118" t="s">
         <v>1670</v>
       </c>
-      <c r="C95" s="109" t="s">
+      <c r="C95" s="105" t="s">
         <v>1423</v>
       </c>
       <c r="D95" t="s">
@@ -35319,7 +35342,7 @@
       <c r="F95" t="s">
         <v>1904</v>
       </c>
-      <c r="G95" s="117" t="s">
+      <c r="G95" s="113" t="s">
         <v>1910</v>
       </c>
       <c r="H95" t="s">
@@ -35346,7 +35369,7 @@
       <c r="F96" t="s">
         <v>1899</v>
       </c>
-      <c r="G96" s="116" t="s">
+      <c r="G96" s="112" t="s">
         <v>1893</v>
       </c>
       <c r="H96" t="s">
@@ -35355,12 +35378,12 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B97" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B97" s="118" t="s">
         <v>1671</v>
       </c>
-      <c r="C97" s="109" t="s">
+      <c r="C97" s="105" t="s">
         <v>1424</v>
       </c>
       <c r="D97" t="s">
@@ -35372,7 +35395,7 @@
       <c r="F97" t="s">
         <v>1905</v>
       </c>
-      <c r="G97" s="117" t="s">
+      <c r="G97" s="113" t="s">
         <v>1911</v>
       </c>
       <c r="H97" t="s">
@@ -35398,7 +35421,7 @@
       <c r="F98" t="s">
         <v>1900</v>
       </c>
-      <c r="G98" s="116" t="s">
+      <c r="G98" s="112" t="s">
         <v>1894</v>
       </c>
       <c r="H98" t="s">
@@ -35407,12 +35430,12 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B99" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B99" s="118" t="s">
         <v>1672</v>
       </c>
-      <c r="C99" s="109" t="s">
+      <c r="C99" s="105" t="s">
         <v>1425</v>
       </c>
       <c r="D99" t="s">
@@ -35424,7 +35447,7 @@
       <c r="F99" t="s">
         <v>1906</v>
       </c>
-      <c r="G99" s="117" t="s">
+      <c r="G99" s="113" t="s">
         <v>1912</v>
       </c>
       <c r="H99" t="s">
@@ -35450,7 +35473,7 @@
       <c r="F100" t="s">
         <v>1901</v>
       </c>
-      <c r="G100" s="116" t="s">
+      <c r="G100" s="112" t="s">
         <v>1895</v>
       </c>
       <c r="H100" t="s">
@@ -35459,12 +35482,12 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B101" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B101" s="118" t="s">
         <v>1673</v>
       </c>
-      <c r="C101" s="109" t="s">
+      <c r="C101" s="105" t="s">
         <v>1426</v>
       </c>
       <c r="D101" t="s">
@@ -35476,7 +35499,7 @@
       <c r="F101" t="s">
         <v>1907</v>
       </c>
-      <c r="G101" s="117" t="s">
+      <c r="G101" s="113" t="s">
         <v>1913</v>
       </c>
       <c r="H101" t="s">
@@ -35502,7 +35525,7 @@
       <c r="F102" t="s">
         <v>1902</v>
       </c>
-      <c r="G102" s="116" t="s">
+      <c r="G102" s="112" t="s">
         <v>1896</v>
       </c>
       <c r="H102" t="s">
@@ -35511,12 +35534,12 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B103" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B103" s="118" t="s">
         <v>1674</v>
       </c>
-      <c r="C103" s="109" t="s">
+      <c r="C103" s="105" t="s">
         <v>1010</v>
       </c>
       <c r="D103" t="s">
@@ -35528,7 +35551,7 @@
       <c r="F103" t="s">
         <v>1908</v>
       </c>
-      <c r="G103" s="117" t="s">
+      <c r="G103" s="113" t="s">
         <v>1909</v>
       </c>
       <c r="H103" t="s">
@@ -35554,7 +35577,7 @@
       <c r="F104" t="s">
         <v>1903</v>
       </c>
-      <c r="G104" s="116" t="s">
+      <c r="G104" s="112" t="s">
         <v>1897</v>
       </c>
       <c r="H104" t="s">
@@ -35580,7 +35603,7 @@
       <c r="F105" t="s">
         <v>1560</v>
       </c>
-      <c r="G105" s="117" t="s">
+      <c r="G105" s="113" t="s">
         <v>1914</v>
       </c>
       <c r="H105" t="s">
@@ -35594,7 +35617,7 @@
       <c r="B106" t="s">
         <v>1676</v>
       </c>
-      <c r="C106" s="114" t="s">
+      <c r="C106" s="110" t="s">
         <v>1427</v>
       </c>
       <c r="D106" t="s">
@@ -35606,7 +35629,7 @@
       <c r="F106" t="s">
         <v>1561</v>
       </c>
-      <c r="G106" s="115" t="s">
+      <c r="G106" s="111" t="s">
         <v>1915</v>
       </c>
       <c r="H106" t="s">
@@ -35876,12 +35899,12 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>1312</v>
+        <v>1065</v>
       </c>
       <c r="B117" t="s">
         <v>1683</v>
       </c>
-      <c r="C117" s="113" t="s">
+      <c r="C117" s="109" t="s">
         <v>1436</v>
       </c>
       <c r="D117" t="s">
@@ -35893,7 +35916,7 @@
       <c r="F117" t="s">
         <v>2016</v>
       </c>
-      <c r="G117" s="115" t="s">
+      <c r="G117" s="111" t="s">
         <v>2019</v>
       </c>
       <c r="H117" t="s">
@@ -35928,12 +35951,12 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>1312</v>
+        <v>1065</v>
       </c>
       <c r="B119" t="s">
         <v>1684</v>
       </c>
-      <c r="C119" s="113" t="s">
+      <c r="C119" s="109" t="s">
         <v>1437</v>
       </c>
       <c r="D119" t="s">
@@ -35945,7 +35968,7 @@
       <c r="F119" t="s">
         <v>2018</v>
       </c>
-      <c r="G119" s="115" t="s">
+      <c r="G119" s="111" t="s">
         <v>2020</v>
       </c>
       <c r="H119" t="s">
@@ -36024,7 +36047,7 @@
       <c r="F122" t="s">
         <v>1573</v>
       </c>
-      <c r="G122" s="115" t="s">
+      <c r="G122" s="111" t="s">
         <v>2014</v>
       </c>
       <c r="H122" t="s">
@@ -36078,7 +36101,7 @@
       <c r="F124" t="s">
         <v>1575</v>
       </c>
-      <c r="G124" s="115" t="s">
+      <c r="G124" s="111" t="s">
         <v>2021</v>
       </c>
       <c r="H124" t="s">
@@ -39173,10 +39196,10 @@
   <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R104" sqref="R104"/>
+      <selection pane="bottomRight" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
